--- a/FYP Data/Evaluation/ScrollFling evaluaton classifiers - 5 Obs.xlsx
+++ b/FYP Data/Evaluation/ScrollFling evaluaton classifiers - 5 Obs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maximilian\Desktop\FYP Data\Evaluation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DIT\MaxStaffForDIT\4thYear\FinalYearProject\BehaviouralBiometricsPhoneLock\FYP\FYP Data\Evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
